--- a/xlsx/利率_intext.xlsx
+++ b/xlsx/利率_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>利率</t>
   </si>
@@ -29,13 +29,13 @@
     <t>利润率</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_利率</t>
+    <t>政策_政策_货币政策_利率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%81%AF</t>
@@ -59,61 +59,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>貨幣政策</t>
+    <t>货币政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
+    <t>通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E7%8E%87</t>
   </si>
   <si>
-    <t>失業率</t>
+    <t>失业率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85</t>
   </si>
   <si>
-    <t>消費者</t>
+    <t>消费者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%84%B9%E7%8E%87</t>
   </si>
   <si>
-    <t>通脹率</t>
+    <t>通胀率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%AA%E6%96%B9%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>費雪方程式</t>
+    <t>费雪方程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>宏觀經濟學</t>
+    <t>宏观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -161,27 +161,24 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦儲備局</t>
+    <t>联邦储备局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>货币政策</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%82%AF%E6%B3%95%E5%88%99</t>
   </si>
   <si>
@@ -191,19 +188,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E4%BE%9B%E7%B5%A6</t>
   </si>
   <si>
-    <t>貨幣供給</t>
+    <t>货币供给</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E6%80%A7%E8%BF%91%E4%BC%BC</t>
   </si>
   <si>
-    <t>線性近似</t>
+    <t>线性近似</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E6%95%B0</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E6%95%B8</t>
   </si>
   <si>
-    <t>對數</t>
+    <t>对数</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1337,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1395,10 +1392,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1424,10 +1421,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>9</v>
@@ -1453,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1482,10 +1479,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1511,10 +1508,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1540,10 +1537,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
